--- a/datos_futbol.xlsx
+++ b/datos_futbol.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\TrueSkill_Furbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\TrueSkill_Furbo\Aplicación_Equilibrio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8092DF-8138-4DD8-AAE3-09D8405E1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E0142-5B9B-4B0D-A654-A16C952A7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58D1B44F-706B-4306-B934-1493C165E044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{58D1B44F-706B-4306-B934-1493C165E044}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos" sheetId="1" r:id="rId1"/>
     <sheet name="atributos" sheetId="2" r:id="rId2"/>
+    <sheet name="analisis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
   <si>
     <t>Partido</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>Portero</t>
+  </si>
+  <si>
+    <t>Numero de partidos</t>
+  </si>
+  <si>
+    <t>Ratio de victorias</t>
   </si>
 </sst>
 </file>
@@ -551,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A36CDEF-9822-494B-8576-3D1E13782345}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767D1FD2-53F6-4F5F-BE8A-7F68693BFC0E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,4 +2155,336 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC54EC37-FB71-46DA-AA3A-710A71F3B07C}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(partidos!$C$2:$C$363,A2)</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(partidos!C:C, A2, partidos!E:E, "Gana")/B2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(partidos!$C$2:$C$363,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="e">
+        <f>COUNTIFS(partidos!C:C, A3, partidos!E:E, "Gana")/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(partidos!$C$2:$C$363,A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(partidos!C:C, A4, partidos!E:E, "Gana")/B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(partidos!$C$2:$C$363,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="e">
+        <f>COUNTIFS(partidos!C:C, A5, partidos!E:E, "Gana")/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(partidos!$C$2:$C$363,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS(partidos!C:C, A6, partidos!E:E, "Gana")/B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(partidos!$C$2:$C$363,A7)</f>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(partidos!C:C, A7, partidos!E:E, "Gana")/B7</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(partidos!$C$2:$C$363,A8)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(partidos!C:C, A8, partidos!E:E, "Gana")/B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(partidos!$C$2:$C$363,A9)</f>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIFS(partidos!C:C, A9, partidos!E:E, "Gana")/B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(partidos!$C$2:$C$363,A10)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIFS(partidos!C:C, A10, partidos!E:E, "Gana")/B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(partidos!$C$2:$C$363,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
+        <f>COUNTIFS(partidos!C:C, A11, partidos!E:E, "Gana")/B11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(partidos!$C$2:$C$363,A12)</f>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS(partidos!C:C, A12, partidos!E:E, "Gana")/B12</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(partidos!$C$2:$C$363,A13)</f>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIFS(partidos!C:C, A13, partidos!E:E, "Gana")/B13</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(partidos!$C$2:$C$363,A14)</f>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIFS(partidos!C:C, A14, partidos!E:E, "Gana")/B14</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(partidos!$C$2:$C$363,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f>COUNTIFS(partidos!C:C, A15, partidos!E:E, "Gana")/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(partidos!$C$2:$C$363,A16)</f>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIFS(partidos!C:C, A16, partidos!E:E, "Gana")/B16</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(partidos!$C$2:$C$363,A17)</f>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIFS(partidos!C:C, A17, partidos!E:E, "Gana")/B17</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(partidos!$C$2:$C$363,A18)</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIFS(partidos!C:C, A18, partidos!E:E, "Gana")/B18</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(partidos!$C$2:$C$363,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIFS(partidos!C:C, A19, partidos!E:E, "Gana")/B19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(partidos!$C$2:$C$363,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="e">
+        <f>COUNTIFS(partidos!C:C, A20, partidos!E:E, "Gana")/B20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(partidos!$C$2:$C$363,A21)</f>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIFS(partidos!C:C, A21, partidos!E:E, "Gana")/B21</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(partidos!$C$2:$C$363,A22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIFS(partidos!C:C, A22, partidos!E:E, "Gana")/B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(partidos!$C$2:$C$363,A23)</f>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIFS(partidos!C:C, A23, partidos!E:E, "Gana")/B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(partidos!$C$2:$C$363,A24)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIFS(partidos!C:C, A24, partidos!E:E, "Gana")/B24</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos_futbol.xlsx
+++ b/datos_futbol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\TrueSkill_Furbo\Aplicación_Equilibrio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E0142-5B9B-4B0D-A654-A16C952A7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F3B270-0DD6-4A2B-B87F-D1E9C96DD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{58D1B44F-706B-4306-B934-1493C165E044}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -212,19 +219,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2162,7 +2172,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2203,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A2)</f>
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>COUNTIFS(partidos!C:C, A2, partidos!E:E, "Gana")/B2</f>
         <v>0.8</v>
       </c>
@@ -2206,7 +2216,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" t="e">
+      <c r="C3" s="4" t="e">
         <f>COUNTIFS(partidos!C:C, A3, partidos!E:E, "Gana")/B3</f>
         <v>#DIV/0!</v>
       </c>
@@ -2219,7 +2229,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A4)</f>
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f>COUNTIFS(partidos!C:C, A4, partidos!E:E, "Gana")/B4</f>
         <v>0</v>
       </c>
@@ -2232,7 +2242,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" t="e">
+      <c r="C5" s="4" t="e">
         <f>COUNTIFS(partidos!C:C, A5, partidos!E:E, "Gana")/B5</f>
         <v>#DIV/0!</v>
       </c>
@@ -2245,7 +2255,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A6)</f>
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>COUNTIFS(partidos!C:C, A6, partidos!E:E, "Gana")/B6</f>
         <v>1</v>
       </c>
@@ -2258,7 +2268,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A7)</f>
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>COUNTIFS(partidos!C:C, A7, partidos!E:E, "Gana")/B7</f>
         <v>0.75</v>
       </c>
@@ -2271,7 +2281,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A8)</f>
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f>COUNTIFS(partidos!C:C, A8, partidos!E:E, "Gana")/B8</f>
         <v>1</v>
       </c>
@@ -2284,7 +2294,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A9)</f>
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>COUNTIFS(partidos!C:C, A9, partidos!E:E, "Gana")/B9</f>
         <v>0</v>
       </c>
@@ -2297,7 +2307,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A10)</f>
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f>COUNTIFS(partidos!C:C, A10, partidos!E:E, "Gana")/B10</f>
         <v>0</v>
       </c>
@@ -2310,7 +2320,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C11" s="4" t="e">
         <f>COUNTIFS(partidos!C:C, A11, partidos!E:E, "Gana")/B11</f>
         <v>#DIV/0!</v>
       </c>
@@ -2323,7 +2333,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A12)</f>
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f>COUNTIFS(partidos!C:C, A12, partidos!E:E, "Gana")/B12</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2336,7 +2346,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A13)</f>
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f>COUNTIFS(partidos!C:C, A13, partidos!E:E, "Gana")/B13</f>
         <v>0.33333333333333331</v>
       </c>
@@ -2349,7 +2359,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A14)</f>
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>COUNTIFS(partidos!C:C, A14, partidos!E:E, "Gana")/B14</f>
         <v>0.33333333333333331</v>
       </c>
@@ -2362,7 +2372,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" t="e">
+      <c r="C15" s="4" t="e">
         <f>COUNTIFS(partidos!C:C, A15, partidos!E:E, "Gana")/B15</f>
         <v>#DIV/0!</v>
       </c>
@@ -2375,7 +2385,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A16)</f>
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <f>COUNTIFS(partidos!C:C, A16, partidos!E:E, "Gana")/B16</f>
         <v>0.4</v>
       </c>
@@ -2388,7 +2398,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A17)</f>
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <f>COUNTIFS(partidos!C:C, A17, partidos!E:E, "Gana")/B17</f>
         <v>0.8</v>
       </c>
@@ -2401,7 +2411,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A18)</f>
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <f>COUNTIFS(partidos!C:C, A18, partidos!E:E, "Gana")/B18</f>
         <v>0.25</v>
       </c>
@@ -2414,7 +2424,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A19)</f>
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <f>COUNTIFS(partidos!C:C, A19, partidos!E:E, "Gana")/B19</f>
         <v>1</v>
       </c>
@@ -2427,7 +2437,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A20)</f>
         <v>0</v>
       </c>
-      <c r="C20" t="e">
+      <c r="C20" s="4" t="e">
         <f>COUNTIFS(partidos!C:C, A20, partidos!E:E, "Gana")/B20</f>
         <v>#DIV/0!</v>
       </c>
@@ -2440,7 +2450,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A21)</f>
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <f>COUNTIFS(partidos!C:C, A21, partidos!E:E, "Gana")/B21</f>
         <v>0.25</v>
       </c>
@@ -2453,7 +2463,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A22)</f>
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <f>COUNTIFS(partidos!C:C, A22, partidos!E:E, "Gana")/B22</f>
         <v>0</v>
       </c>
@@ -2466,7 +2476,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A23)</f>
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <f>COUNTIFS(partidos!C:C, A23, partidos!E:E, "Gana")/B23</f>
         <v>0</v>
       </c>
@@ -2479,7 +2489,7 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A24)</f>
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <f>COUNTIFS(partidos!C:C, A24, partidos!E:E, "Gana")/B24</f>
         <v>1</v>
       </c>

--- a/datos_futbol.xlsx
+++ b/datos_futbol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\TrueSkill_Furbo\Aplicación_Equilibrio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F3B270-0DD6-4A2B-B87F-D1E9C96DD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F440D-74F9-48F5-93A8-4CBFA67E95D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{58D1B44F-706B-4306-B934-1493C165E044}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +188,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -219,22 +212,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2172,7 +2162,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,9 +2193,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A2)</f>
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <f>COUNTIFS(partidos!C:C, A2, partidos!E:E, "Gana")/B2</f>
-        <v>0.8</v>
+      <c r="C2">
+        <f>COUNTIFS(partidos!C:C, A2, partidos!E:E, "Gana")/B2 *100</f>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,8 +2206,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="e">
-        <f>COUNTIFS(partidos!C:C, A3, partidos!E:E, "Gana")/B3</f>
+      <c r="C3" t="e">
+        <f>COUNTIFS(partidos!C:C, A3, partidos!E:E, "Gana")/B3 *100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2229,8 +2219,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <f>COUNTIFS(partidos!C:C, A4, partidos!E:E, "Gana")/B4</f>
+      <c r="C4">
+        <f>COUNTIFS(partidos!C:C, A4, partidos!E:E, "Gana")/B4 *100</f>
         <v>0</v>
       </c>
     </row>
@@ -2242,8 +2232,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="e">
-        <f>COUNTIFS(partidos!C:C, A5, partidos!E:E, "Gana")/B5</f>
+      <c r="C5" t="e">
+        <f>COUNTIFS(partidos!C:C, A5, partidos!E:E, "Gana")/B5 *100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2255,9 +2245,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A6)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="4">
-        <f>COUNTIFS(partidos!C:C, A6, partidos!E:E, "Gana")/B6</f>
-        <v>1</v>
+      <c r="C6">
+        <f>COUNTIFS(partidos!C:C, A6, partidos!E:E, "Gana")/B6 *100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,9 +2258,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A7)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4">
-        <f>COUNTIFS(partidos!C:C, A7, partidos!E:E, "Gana")/B7</f>
-        <v>0.75</v>
+      <c r="C7">
+        <f>COUNTIFS(partidos!C:C, A7, partidos!E:E, "Gana")/B7 *100</f>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,9 +2271,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A8)</f>
         <v>3</v>
       </c>
-      <c r="C8" s="4">
-        <f>COUNTIFS(partidos!C:C, A8, partidos!E:E, "Gana")/B8</f>
-        <v>1</v>
+      <c r="C8">
+        <f>COUNTIFS(partidos!C:C, A8, partidos!E:E, "Gana")/B8 *100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,8 +2284,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A9)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="4">
-        <f>COUNTIFS(partidos!C:C, A9, partidos!E:E, "Gana")/B9</f>
+      <c r="C9">
+        <f>COUNTIFS(partidos!C:C, A9, partidos!E:E, "Gana")/B9 *100</f>
         <v>0</v>
       </c>
     </row>
@@ -2307,8 +2297,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A10)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <f>COUNTIFS(partidos!C:C, A10, partidos!E:E, "Gana")/B10</f>
+      <c r="C10">
+        <f>COUNTIFS(partidos!C:C, A10, partidos!E:E, "Gana")/B10 *100</f>
         <v>0</v>
       </c>
     </row>
@@ -2320,8 +2310,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="e">
-        <f>COUNTIFS(partidos!C:C, A11, partidos!E:E, "Gana")/B11</f>
+      <c r="C11" t="e">
+        <f>COUNTIFS(partidos!C:C, A11, partidos!E:E, "Gana")/B11 *100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2333,9 +2323,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A12)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="4">
-        <f>COUNTIFS(partidos!C:C, A12, partidos!E:E, "Gana")/B12</f>
-        <v>0.66666666666666663</v>
+      <c r="C12">
+        <f>COUNTIFS(partidos!C:C, A12, partidos!E:E, "Gana")/B12 *100</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,9 +2336,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A13)</f>
         <v>3</v>
       </c>
-      <c r="C13" s="4">
-        <f>COUNTIFS(partidos!C:C, A13, partidos!E:E, "Gana")/B13</f>
-        <v>0.33333333333333331</v>
+      <c r="C13">
+        <f>COUNTIFS(partidos!C:C, A13, partidos!E:E, "Gana")/B13 *100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,9 +2349,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A14)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="4">
-        <f>COUNTIFS(partidos!C:C, A14, partidos!E:E, "Gana")/B14</f>
-        <v>0.33333333333333331</v>
+      <c r="C14">
+        <f>COUNTIFS(partidos!C:C, A14, partidos!E:E, "Gana")/B14 *100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,8 +2362,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="e">
-        <f>COUNTIFS(partidos!C:C, A15, partidos!E:E, "Gana")/B15</f>
+      <c r="C15" t="e">
+        <f>COUNTIFS(partidos!C:C, A15, partidos!E:E, "Gana")/B15 *100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2385,9 +2375,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A16)</f>
         <v>5</v>
       </c>
-      <c r="C16" s="4">
-        <f>COUNTIFS(partidos!C:C, A16, partidos!E:E, "Gana")/B16</f>
-        <v>0.4</v>
+      <c r="C16">
+        <f>COUNTIFS(partidos!C:C, A16, partidos!E:E, "Gana")/B16 *100</f>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,9 +2388,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A17)</f>
         <v>5</v>
       </c>
-      <c r="C17" s="4">
-        <f>COUNTIFS(partidos!C:C, A17, partidos!E:E, "Gana")/B17</f>
-        <v>0.8</v>
+      <c r="C17">
+        <f>COUNTIFS(partidos!C:C, A17, partidos!E:E, "Gana")/B17 *100</f>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,9 +2401,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A18)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="4">
-        <f>COUNTIFS(partidos!C:C, A18, partidos!E:E, "Gana")/B18</f>
-        <v>0.25</v>
+      <c r="C18">
+        <f>COUNTIFS(partidos!C:C, A18, partidos!E:E, "Gana")/B18 *100</f>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,9 +2414,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A19)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <f>COUNTIFS(partidos!C:C, A19, partidos!E:E, "Gana")/B19</f>
-        <v>1</v>
+      <c r="C19">
+        <f>COUNTIFS(partidos!C:C, A19, partidos!E:E, "Gana")/B19 *100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,8 +2427,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A20)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="e">
-        <f>COUNTIFS(partidos!C:C, A20, partidos!E:E, "Gana")/B20</f>
+      <c r="C20" t="e">
+        <f>COUNTIFS(partidos!C:C, A20, partidos!E:E, "Gana")/B20 *100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2450,9 +2440,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A21)</f>
         <v>4</v>
       </c>
-      <c r="C21" s="4">
-        <f>COUNTIFS(partidos!C:C, A21, partidos!E:E, "Gana")/B21</f>
-        <v>0.25</v>
+      <c r="C21">
+        <f>COUNTIFS(partidos!C:C, A21, partidos!E:E, "Gana")/B21 *100</f>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,8 +2453,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A22)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="4">
-        <f>COUNTIFS(partidos!C:C, A22, partidos!E:E, "Gana")/B22</f>
+      <c r="C22">
+        <f>COUNTIFS(partidos!C:C, A22, partidos!E:E, "Gana")/B22 *100</f>
         <v>0</v>
       </c>
     </row>
@@ -2476,8 +2466,8 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A23)</f>
         <v>2</v>
       </c>
-      <c r="C23" s="4">
-        <f>COUNTIFS(partidos!C:C, A23, partidos!E:E, "Gana")/B23</f>
+      <c r="C23">
+        <f>COUNTIFS(partidos!C:C, A23, partidos!E:E, "Gana")/B23 *100</f>
         <v>0</v>
       </c>
     </row>
@@ -2489,9 +2479,9 @@
         <f>COUNTIF(partidos!$C$2:$C$363,A24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <f>COUNTIFS(partidos!C:C, A24, partidos!E:E, "Gana")/B24</f>
-        <v>1</v>
+      <c r="C24">
+        <f>COUNTIFS(partidos!C:C, A24, partidos!E:E, "Gana")/B24 *100</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
